--- a/medicine/Enfance/Dodie_Smith/Dodie_Smith.xlsx
+++ b/medicine/Enfance/Dodie_Smith/Dodie_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothy Gladys « Dodie » Smith, née le 3 mai 1896 à Whitefield, dans le Grand Manchester, et morte le 24 novembre 1990 à Uttlesford, dans l'Essex, est une romancière, dramaturge et scénariste britannique principalement connue pour deux de ses ouvrages de littérature d'enfance et de jeunesse : Le Château de Cassandra (I Capture the Castle, 1949) et Les 101 Dalmatiens (The Hundred and One Dalmatians, 1956).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant unique d'une famille aisée, elle passe son enfance dans la maison de ses grands-parents, près de Manchester, où sa mère emménage après la mort de son mari en 1898. Elle développe très tôt une passion pour le théâtre, d'autant que son grand-père est un spectateur assidu des salles et qu'il y amène souvent sa petite-fille, que sa mère rêve de devenir comédienne et que son oncle Harold Furber la guide dans ses lectures de Shakespeare comme de pièces contemporaines. À l'âge de 10 ans, elle écrit sa première pièce et commence à jouer sur scène de petits rôles d'enfant.
 En 1910, sa mère se remarie et déménage à Londres. La jeune Dodie, maintenant âgée de 14 ans, poursuit ses études dans des établissements de Manchester, puis entre en 1914 à la Royal Academy of Dramatic Art, sise à Londres. Sa mère, atteinte d'un cancer du sein, pousse sa fille à devenir membre de la secte de Science chrétienne, ce qui ne l'empêche pas de mourir du mal qui la ronge. Après le décès de sa mère, Dodie accepte un emploi dans un magasin de meubles. Sa carrière d'actrice stagnant, elle devient dramaturge. Elle obtient un gros succès en 1936 avec Call It a Day, sa quatrième pièce, qui lui permet d'acheter une maison dans l'Essex. En 1938, Dear Octopus rencontre également le succès.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pièces de théâtre
-Autumn Crocus (1931)
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Autumn Crocus (1931)
 Service (1932)
 Touch Wood (1934)
 Call It A Day  (1935)
@@ -560,9 +579,43 @@
 Letter from Paris (1952)
 I Capture the Castle (1954)
 These People, Those Books (1958)
-Amateur Means Lover (1961)
-Romans
-I Capture the Castle (1949) Publié en français sous le titre Trois Femmes dans un château, traduit par Josette Hesse, Paris, B. Arthaud, 1950, 340 p. ; nouvelle traduction par Anne Krief sous le titre
+Amateur Means Lover (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>I Capture the Castle (1949) Publié en français sous le titre Trois Femmes dans un château, traduit par Josette Hesse, Paris, B. Arthaud, 1950, 340 p. ; nouvelle traduction par Anne Krief sous le titre
 Le Château de Cassandra, Paris, Gallimard jeunesse, 2004, 476 p.   (ISBN 2-07-055862-2)
 The Hundred and One Dalmatians (1956) Publié en français sous le titre Plus on est de chiens, traduit et adapté par Pierre Bonvallet, illustrations par Jean Reschofsky, Paris, Hachette, coll. « Idéal-Bibliothèque » no 185, 1960, 192 p.
 The New Moon with the Old (1963)
@@ -571,46 +624,119 @@
 The Starlight Barking (1967) Publié en français sous le titre La Grande Nuit des dalmatiens, traduit et adapté par Pierre Bonvallet, illustrations par Jacques Poirier, Paris, Hachette, coll. « Idéal-Bibliothèque » no 359, 1969, 186 p.
 A Tale of Two Families (1970)
 The Girl from the Candle-lit Bath (1978)
-The Midnight Kittens (1978)
-Autobiographies
-Look Back with Love: a Manchester Childhood (1974)
+The Midnight Kittens (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autobiographies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Look Back with Love: a Manchester Childhood (1974)
 Look Back with Mixed Feelings (1978)
 Look Back with Astonishment (1979)
 Look Back with Gratitude (1985)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dodie_Smith</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dodie_Smith</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Scénarios
-La Falaise mystérieuse (The Uninvited, 1944), coécrit avec Frank Partos
-La Part du jeu (Darling, How Could You!) (1951), coécrit avec Lesser Samuels
-Films adaptés de ses œuvres
-Looking Forward (1933), adapté de Service
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Falaise mystérieuse (The Uninvited, 1944), coécrit avec Frank Partos
+La Part du jeu (Darling, How Could You!) (1951), coécrit avec Lesser Samuels</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dodie_Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Films adaptés de ses œuvres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Looking Forward (1933), adapté de Service
 Autumn Circus (1934)
 Une journée de printemps (Call It a Day, 1937)
 Dear Octopus (1943)
